--- a/biology/Histoire de la zoologie et de la botanique/Loïc_Matile/Loïc_Matile.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Loïc_Matile/Loïc_Matile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lo%C3%AFc_Matile</t>
+          <t>Loïc_Matile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Loïc Matile, né à Nantes le 26 juin 1938 et mort à Paris (13e arrondissement) le 10 juin 2000[1] est un entomologiste français spécialisé dans l'étude des diptères. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loïc Matile, né à Nantes le 26 juin 1938 et mort à Paris (13e arrondissement) le 10 juin 2000 est un entomologiste français spécialisé dans l'étude des diptères. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lo%C3%AFc_Matile</t>
+          <t>Loïc_Matile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Loïc Matile est un animateur du laboratoire d'entomologie du Muséum national d'histoire naturelle de Paris durant plus de 30 années. Il y entretient et pérennise les larges collections de diptères (en particulier celles de Macquart et Meigen) et travaille essentiellement sur la systématique. En ce sens, il poursuit fidèlement les travaux d'Eugène Séguy[2]. À partir de 1978, il met en place les bases de la phylogénie cladistique en France selon les préceptes de Willi Hennig. Ces travaux le mènent à explorer également la biogéographie et l'évolution et plus spécifiquement celles des Keroplatidae. Sur cette base, il propose l'hypothèse de l'expansion terrestre et remet en cause le paradigme de la tectonique globale. Néanmoins, il travaille également sur les Bolitophilidae, les Diadocidiidae, les Lygistorrhinidae et les Mycetophilidae. Ses spécialités le mènent à fonder la Société Française de Systématique dont il fut le premier président en 1984[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loïc Matile est un animateur du laboratoire d'entomologie du Muséum national d'histoire naturelle de Paris durant plus de 30 années. Il y entretient et pérennise les larges collections de diptères (en particulier celles de Macquart et Meigen) et travaille essentiellement sur la systématique. En ce sens, il poursuit fidèlement les travaux d'Eugène Séguy. À partir de 1978, il met en place les bases de la phylogénie cladistique en France selon les préceptes de Willi Hennig. Ces travaux le mènent à explorer également la biogéographie et l'évolution et plus spécifiquement celles des Keroplatidae. Sur cette base, il propose l'hypothèse de l'expansion terrestre et remet en cause le paradigme de la tectonique globale. Néanmoins, il travaille également sur les Bolitophilidae, les Diadocidiidae, les Lygistorrhinidae et les Mycetophilidae. Ses spécialités le mènent à fonder la Société Française de Systématique dont il fut le premier président en 1984.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lo%C3%AFc_Matile</t>
+          <t>Loïc_Matile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>en tant qu'auteur
 « Morphologie et biologie d'un insecte diptère cavernicole "Speolepta leptogaster" Winnertz ("Mycetophilidae") », Éditions du Muséum, 1962
